--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Статьи</t>
-  </si>
-  <si>
-    <t>Расходы</t>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>Expenses</t>
   </si>
   <si>
     <t xml:space="preserve">ЗП работникам</t>
@@ -592,7 +592,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/Книга 1.xlsx
+++ b/Книга 1.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Articles</t>
+    <t>Статьи</t>
   </si>
   <si>
     <t>Expenses</t>
